--- a/Examples/Dictionary/Input/ExpN_readconnectionsstruct_Excel.xlsx
+++ b/Examples/Dictionary/Input/ExpN_readconnectionsstruct_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/GITHUB/AhpAnpLib/Examples/Dictionary/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AF3C83-BD41-1844-88C3-363D5EB3B41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EB0945-377D-3447-A243-FDD187459DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="28800" windowHeight="16700" activeTab="1" xr2:uid="{85FBE8EF-A2A3-FF4A-A4E5-6C5A2BBF521C}"/>
+    <workbookView xWindow="32300" yWindow="-960" windowWidth="28800" windowHeight="11540" xr2:uid="{85FBE8EF-A2A3-FF4A-A4E5-6C5A2BBF521C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,12 +107,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,391 +445,392 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AEF4B2-F327-6A4B-8567-F34D23BB6230}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -826,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056A37F-DE07-8C46-8F23-B65D08B5FDC2}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/Examples/Dictionary/Input/ExpN_readconnectionsstruct_Excel.xlsx
+++ b/Examples/Dictionary/Input/ExpN_readconnectionsstruct_Excel.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/GITHUB/AhpAnpLib/Examples/Dictionary/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EB0945-377D-3447-A243-FDD187459DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CD0821-7AD5-2A47-8534-06BF29A220D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32300" yWindow="-960" windowWidth="28800" windowHeight="11540" xr2:uid="{85FBE8EF-A2A3-FF4A-A4E5-6C5A2BBF521C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" activeTab="1" xr2:uid="{85FBE8EF-A2A3-FF4A-A4E5-6C5A2BBF521C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Connections" sheetId="1" r:id="rId1"/>
+    <sheet name="Structure" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -445,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AEF4B2-F327-6A4B-8567-F34D23BB6230}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -843,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056A37F-DE07-8C46-8F23-B65D08B5FDC2}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
